--- a/xlsx/country_comparison/points_mean.xlsx
+++ b/xlsx/country_comparison/points_mean.xlsx
@@ -59,8 +59,7 @@
     <t xml:space="preserve">climate2: Thermal insulation plan (US: also transport)</t>
   </si>
   <si>
-    <t xml:space="preserve">climate3: Ban the sale of new
-combustion-engine cars by 2030</t>
+    <t xml:space="preserve">climate3: Ban the sale of new combustion-engine cars by 2030</t>
   </si>
   <si>
     <t xml:space="preserve">tax1: National redistribution scheme</t>
@@ -438,7 +437,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>13.438020530177</v>
+        <v>13.4380211658986</v>
       </c>
       <c r="C2" t="n">
         <v>21.16816562391</v>
@@ -461,7 +460,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>23.0388401788096</v>
+        <v>23.0388403171059</v>
       </c>
       <c r="C3" t="n">
         <v>22.2994711929093</v>
@@ -484,7 +483,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>21.2287024297374</v>
+        <v>21.2287024992306</v>
       </c>
       <c r="C4" t="n">
         <v>15.2204419489833</v>
@@ -507,7 +506,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>27.7651677650539</v>
+        <v>27.7651677414388</v>
       </c>
       <c r="C5" t="n">
         <v>21.7987341324273</v>
@@ -530,7 +529,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>10.19061349192</v>
+        <v>10.1906132579199</v>
       </c>
       <c r="C6" t="n">
         <v>16.5989523466066</v>
@@ -553,7 +552,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>13.3797442232408</v>
+        <v>13.3797440916754</v>
       </c>
       <c r="C7" t="n">
         <v>9.48911232174849</v>
@@ -576,7 +575,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>13.7042392084763</v>
+        <v>13.7042389596488</v>
       </c>
       <c r="C8" t="n">
         <v>15.1783568543692</v>
@@ -599,7 +598,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>19.7507437616106</v>
+        <v>19.7507435781098</v>
       </c>
       <c r="C9" t="n">
         <v>18.4084854350241</v>
@@ -622,7 +621,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>10.5530471243107</v>
+        <v>10.5530473217693</v>
       </c>
       <c r="C10" t="n">
         <v>9.13927914552725</v>
@@ -645,7 +644,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>13.5810945472831</v>
+        <v>13.5810946595551</v>
       </c>
       <c r="C11" t="n">
         <v>15.2843390865714</v>
@@ -668,7 +667,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>19.0358811901273</v>
+        <v>19.0358810776434</v>
       </c>
       <c r="C12" t="n">
         <v>18.8810520681388</v>
@@ -691,7 +690,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>15.4001300205452</v>
+        <v>15.4001299565062</v>
       </c>
       <c r="C13" t="n">
         <v>19.7543351996458</v>
@@ -714,7 +713,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>20.6308268004252</v>
+        <v>20.630826845836</v>
       </c>
       <c r="C14" t="n">
         <v>20.494327864641</v>
@@ -737,7 +736,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>14.6466973085026</v>
+        <v>14.646697373968</v>
       </c>
       <c r="C15" t="n">
         <v>14.929995246853</v>
@@ -760,7 +759,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>8.82406788307346</v>
+        <v>8.82406787750107</v>
       </c>
       <c r="C16" t="n">
         <v>11.3857446505851</v>
